--- a/data/pca/factorExposure/factorExposure_2012-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-26.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01718879609123084</v>
+        <v>-0.01637563282543211</v>
       </c>
       <c r="C2">
-        <v>0.03526208474554474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02822789580516567</v>
+      </c>
+      <c r="D2">
+        <v>0.0006269236499078726</v>
+      </c>
+      <c r="E2">
+        <v>0.00998397235013848</v>
+      </c>
+      <c r="F2">
+        <v>-0.008988752615660213</v>
+      </c>
+      <c r="G2">
+        <v>-0.002563119167627142</v>
+      </c>
+      <c r="H2">
+        <v>0.04859246812774441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.076146312375801</v>
+        <v>-0.08544312927908565</v>
       </c>
       <c r="C4">
-        <v>0.0559148098999907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03755966788688401</v>
+      </c>
+      <c r="D4">
+        <v>0.07074884277245459</v>
+      </c>
+      <c r="E4">
+        <v>0.004866889194972913</v>
+      </c>
+      <c r="F4">
+        <v>-0.02990805824027604</v>
+      </c>
+      <c r="G4">
+        <v>-0.005856379130364807</v>
+      </c>
+      <c r="H4">
+        <v>-0.0406857185497488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1068318067159761</v>
+        <v>-0.1197140369869608</v>
       </c>
       <c r="C6">
-        <v>0.05390698581329866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03423055161812171</v>
+      </c>
+      <c r="D6">
+        <v>0.006713414744060271</v>
+      </c>
+      <c r="E6">
+        <v>0.003036881845306928</v>
+      </c>
+      <c r="F6">
+        <v>-0.06089729783022272</v>
+      </c>
+      <c r="G6">
+        <v>-0.02553055862841703</v>
+      </c>
+      <c r="H6">
+        <v>0.0704406627328798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0495590698412801</v>
+        <v>-0.06166323496796253</v>
       </c>
       <c r="C7">
-        <v>0.02705201108370711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01849835193000691</v>
+      </c>
+      <c r="D7">
+        <v>0.04593250741058563</v>
+      </c>
+      <c r="E7">
+        <v>0.02931782177085759</v>
+      </c>
+      <c r="F7">
+        <v>-0.0388098674601375</v>
+      </c>
+      <c r="G7">
+        <v>0.03853003781827951</v>
+      </c>
+      <c r="H7">
+        <v>-0.02320793639587179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03663108046167621</v>
+        <v>-0.03907991041442285</v>
       </c>
       <c r="C8">
-        <v>0.01227882695769945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.004987152100434494</v>
+      </c>
+      <c r="D8">
+        <v>0.03259354484364194</v>
+      </c>
+      <c r="E8">
+        <v>0.02034226931074895</v>
+      </c>
+      <c r="F8">
+        <v>-0.03876958801551597</v>
+      </c>
+      <c r="G8">
+        <v>-0.03201158723877769</v>
+      </c>
+      <c r="H8">
+        <v>0.0004642047056118763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06843750453480246</v>
+        <v>-0.07669422086461505</v>
       </c>
       <c r="C9">
-        <v>0.04550211962672605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02823708420408982</v>
+      </c>
+      <c r="D9">
+        <v>0.06481748161087633</v>
+      </c>
+      <c r="E9">
+        <v>0.02459260930087123</v>
+      </c>
+      <c r="F9">
+        <v>-0.03539521307122551</v>
+      </c>
+      <c r="G9">
+        <v>-0.009687017126499492</v>
+      </c>
+      <c r="H9">
+        <v>-0.05478017505090082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03026320680048863</v>
+        <v>-0.03692141277220706</v>
       </c>
       <c r="C10">
-        <v>0.03515383756906896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04239623717785031</v>
+      </c>
+      <c r="D10">
+        <v>-0.1694607977658953</v>
+      </c>
+      <c r="E10">
+        <v>0.05414111068142765</v>
+      </c>
+      <c r="F10">
+        <v>-0.0417135832877899</v>
+      </c>
+      <c r="G10">
+        <v>0.03746999454095824</v>
+      </c>
+      <c r="H10">
+        <v>0.04027305746751182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07100439974318704</v>
+        <v>-0.07532452017074191</v>
       </c>
       <c r="C11">
-        <v>0.04583837802661191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02628986029265122</v>
+      </c>
+      <c r="D11">
+        <v>0.06340774219579842</v>
+      </c>
+      <c r="E11">
+        <v>-0.01026420588776357</v>
+      </c>
+      <c r="F11">
+        <v>-0.024592904732075</v>
+      </c>
+      <c r="G11">
+        <v>0.002184185937850765</v>
+      </c>
+      <c r="H11">
+        <v>-0.09008282369558573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05726852132326358</v>
+        <v>-0.06442330161766939</v>
       </c>
       <c r="C12">
-        <v>0.04969924132865986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03439922725425608</v>
+      </c>
+      <c r="D12">
+        <v>0.04965748670260871</v>
+      </c>
+      <c r="E12">
+        <v>0.01135695070785781</v>
+      </c>
+      <c r="F12">
+        <v>-0.01695436643636785</v>
+      </c>
+      <c r="G12">
+        <v>-0.002785392466937397</v>
+      </c>
+      <c r="H12">
+        <v>-0.05365940092284983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06281785594483084</v>
+        <v>-0.06554109340891041</v>
       </c>
       <c r="C13">
-        <v>0.04331562159200338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02518850943538304</v>
+      </c>
+      <c r="D13">
+        <v>0.04134502348796251</v>
+      </c>
+      <c r="E13">
+        <v>0.007348559479559776</v>
+      </c>
+      <c r="F13">
+        <v>-0.00130293094628772</v>
+      </c>
+      <c r="G13">
+        <v>0.001220898690952781</v>
+      </c>
+      <c r="H13">
+        <v>-0.05398023880373538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03145720452191218</v>
+        <v>-0.03896105563249562</v>
       </c>
       <c r="C14">
-        <v>0.02939734179332927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02467934720071616</v>
+      </c>
+      <c r="D14">
+        <v>0.006995907496056132</v>
+      </c>
+      <c r="E14">
+        <v>0.02132532978572721</v>
+      </c>
+      <c r="F14">
+        <v>-0.01296650090603855</v>
+      </c>
+      <c r="G14">
+        <v>-0.01555929931872442</v>
+      </c>
+      <c r="H14">
+        <v>-0.0581045137418349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03933333431285334</v>
+        <v>-0.03920916231128657</v>
       </c>
       <c r="C15">
-        <v>0.01078060355894792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002673426353166549</v>
+      </c>
+      <c r="D15">
+        <v>0.007113616428802132</v>
+      </c>
+      <c r="E15">
+        <v>0.0423442389055961</v>
+      </c>
+      <c r="F15">
+        <v>0.005016323333879209</v>
+      </c>
+      <c r="G15">
+        <v>-0.02782580641911347</v>
+      </c>
+      <c r="H15">
+        <v>-0.04612900835060744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06033162538499089</v>
+        <v>-0.06777672055309819</v>
       </c>
       <c r="C16">
-        <v>0.04145134638698238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02659410652677609</v>
+      </c>
+      <c r="D16">
+        <v>0.06291481885062633</v>
+      </c>
+      <c r="E16">
+        <v>0.003528728598463096</v>
+      </c>
+      <c r="F16">
+        <v>-0.02279875182351001</v>
+      </c>
+      <c r="G16">
+        <v>0.001464235327094176</v>
+      </c>
+      <c r="H16">
+        <v>-0.05676719865304361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06470921739131451</v>
+        <v>-0.06385466641244213</v>
       </c>
       <c r="C20">
-        <v>0.03222993913467322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01310355243891702</v>
+      </c>
+      <c r="D20">
+        <v>0.04851196202649773</v>
+      </c>
+      <c r="E20">
+        <v>0.01772345780632942</v>
+      </c>
+      <c r="F20">
+        <v>-0.02071897865824276</v>
+      </c>
+      <c r="G20">
+        <v>-0.005795686060313537</v>
+      </c>
+      <c r="H20">
+        <v>-0.05371489772127207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02348725356812154</v>
+        <v>-0.02198096895566296</v>
       </c>
       <c r="C21">
-        <v>-0.004498337747551778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.0122157373746099</v>
+      </c>
+      <c r="D21">
+        <v>0.03383880702352021</v>
+      </c>
+      <c r="E21">
+        <v>0.07187542559680885</v>
+      </c>
+      <c r="F21">
+        <v>0.02633543672680485</v>
+      </c>
+      <c r="G21">
+        <v>-0.01796728078546843</v>
+      </c>
+      <c r="H21">
+        <v>0.04098096911499018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07348089759187867</v>
+        <v>-0.06846067085531048</v>
       </c>
       <c r="C22">
-        <v>0.0600859168858064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03482979537539588</v>
+      </c>
+      <c r="D22">
+        <v>0.1053655789729131</v>
+      </c>
+      <c r="E22">
+        <v>0.5964070713046177</v>
+      </c>
+      <c r="F22">
+        <v>0.1943062900961466</v>
+      </c>
+      <c r="G22">
+        <v>0.02661437110488661</v>
+      </c>
+      <c r="H22">
+        <v>0.1494489963200635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07444742994904141</v>
+        <v>-0.06906687832283699</v>
       </c>
       <c r="C23">
-        <v>0.05900495339968474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03354394187776866</v>
+      </c>
+      <c r="D23">
+        <v>0.106145232824991</v>
+      </c>
+      <c r="E23">
+        <v>0.5958306309672022</v>
+      </c>
+      <c r="F23">
+        <v>0.1933524424321219</v>
+      </c>
+      <c r="G23">
+        <v>0.02484556035217474</v>
+      </c>
+      <c r="H23">
+        <v>0.1448353024682631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06954547850326245</v>
+        <v>-0.07795892746417764</v>
       </c>
       <c r="C24">
-        <v>0.04930961995864058</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03198721772411741</v>
+      </c>
+      <c r="D24">
+        <v>0.06133085399740678</v>
+      </c>
+      <c r="E24">
+        <v>0.01113642039385485</v>
+      </c>
+      <c r="F24">
+        <v>-0.03164078143885116</v>
+      </c>
+      <c r="G24">
+        <v>-0.007661226595143179</v>
+      </c>
+      <c r="H24">
+        <v>-0.0646437606370408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07035125826519836</v>
+        <v>-0.07607451498357312</v>
       </c>
       <c r="C25">
-        <v>0.05540808385482728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03662297183763236</v>
+      </c>
+      <c r="D25">
+        <v>0.05546400309240376</v>
+      </c>
+      <c r="E25">
+        <v>0.01267540167348894</v>
+      </c>
+      <c r="F25">
+        <v>-0.02585674286496584</v>
+      </c>
+      <c r="G25">
+        <v>-0.01936728829888055</v>
+      </c>
+      <c r="H25">
+        <v>-0.06743670353831058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04282679057938758</v>
+        <v>-0.04611781043476001</v>
       </c>
       <c r="C26">
-        <v>0.007434430344905658</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0003453648766820999</v>
+      </c>
+      <c r="D26">
+        <v>0.02622074376061458</v>
+      </c>
+      <c r="E26">
+        <v>0.04146177118003039</v>
+      </c>
+      <c r="F26">
+        <v>-0.01956367319898997</v>
+      </c>
+      <c r="G26">
+        <v>0.002125243912572625</v>
+      </c>
+      <c r="H26">
+        <v>-0.06456211225963759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05869954321747954</v>
+        <v>-0.07184537022756851</v>
       </c>
       <c r="C28">
-        <v>0.07456186426330111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08440778605705988</v>
+      </c>
+      <c r="D28">
+        <v>-0.3108850187078696</v>
+      </c>
+      <c r="E28">
+        <v>0.04367091124013558</v>
+      </c>
+      <c r="F28">
+        <v>-0.05159710748708399</v>
+      </c>
+      <c r="G28">
+        <v>-0.02791787524290641</v>
+      </c>
+      <c r="H28">
+        <v>0.02462408949698888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04042486624568987</v>
+        <v>-0.04700929351753807</v>
       </c>
       <c r="C29">
-        <v>0.03034660983803665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0233544333839396</v>
+      </c>
+      <c r="D29">
+        <v>0.006943707318514975</v>
+      </c>
+      <c r="E29">
+        <v>0.04763004466364986</v>
+      </c>
+      <c r="F29">
+        <v>-0.0008223022568975591</v>
+      </c>
+      <c r="G29">
+        <v>-0.001501261243657127</v>
+      </c>
+      <c r="H29">
+        <v>-0.08694310262424497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.124865508415901</v>
+        <v>-0.1333106073345053</v>
       </c>
       <c r="C30">
-        <v>0.09289236500730828</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.05816231563108062</v>
+      </c>
+      <c r="D30">
+        <v>0.08857956812679325</v>
+      </c>
+      <c r="E30">
+        <v>0.04408481451268718</v>
+      </c>
+      <c r="F30">
+        <v>-0.004230673945768244</v>
+      </c>
+      <c r="G30">
+        <v>-0.04354931185277724</v>
+      </c>
+      <c r="H30">
+        <v>0.02224022454318543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04124020268641854</v>
+        <v>-0.04666247670658376</v>
       </c>
       <c r="C31">
-        <v>0.01852923223046787</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01014713943360458</v>
+      </c>
+      <c r="D31">
+        <v>0.02592350769155059</v>
+      </c>
+      <c r="E31">
+        <v>0.02616992096926318</v>
+      </c>
+      <c r="F31">
+        <v>-0.01082277722618367</v>
+      </c>
+      <c r="G31">
+        <v>0.01663877052490908</v>
+      </c>
+      <c r="H31">
+        <v>-0.0749743861840039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03755396067845138</v>
+        <v>-0.03630667957528377</v>
       </c>
       <c r="C32">
-        <v>0.02185749388113253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01414666999263515</v>
+      </c>
+      <c r="D32">
+        <v>0.01189248903502562</v>
+      </c>
+      <c r="E32">
+        <v>0.06389047639914185</v>
+      </c>
+      <c r="F32">
+        <v>0.008822641158139174</v>
+      </c>
+      <c r="G32">
+        <v>-0.04169786003496083</v>
+      </c>
+      <c r="H32">
+        <v>-0.06577426672438309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08017550609175077</v>
+        <v>-0.09419455551856815</v>
       </c>
       <c r="C33">
-        <v>0.0426240106262395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02649876828023116</v>
+      </c>
+      <c r="D33">
+        <v>0.05598281014107938</v>
+      </c>
+      <c r="E33">
+        <v>0.01512309750260413</v>
+      </c>
+      <c r="F33">
+        <v>-0.003889677564719955</v>
+      </c>
+      <c r="G33">
+        <v>0.007631268415747661</v>
+      </c>
+      <c r="H33">
+        <v>-0.07513259646883542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05540497659010225</v>
+        <v>-0.05972148049246637</v>
       </c>
       <c r="C34">
-        <v>0.02751757383681925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01225785161859069</v>
+      </c>
+      <c r="D34">
+        <v>0.0560673540275069</v>
+      </c>
+      <c r="E34">
+        <v>0.003332903169481356</v>
+      </c>
+      <c r="F34">
+        <v>-0.01478671737845091</v>
+      </c>
+      <c r="G34">
+        <v>-0.006953174365087147</v>
+      </c>
+      <c r="H34">
+        <v>-0.05297476213654424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03744174470313082</v>
+        <v>-0.04136422243050288</v>
       </c>
       <c r="C35">
-        <v>0.008096286228783533</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.001515654158296942</v>
+      </c>
+      <c r="D35">
+        <v>0.009078823541639421</v>
+      </c>
+      <c r="E35">
+        <v>0.02129048282439398</v>
+      </c>
+      <c r="F35">
+        <v>0.01103687769347662</v>
+      </c>
+      <c r="G35">
+        <v>0.008585027005365556</v>
+      </c>
+      <c r="H35">
+        <v>-0.03586950622068734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02002387679513659</v>
+        <v>-0.02620558632409044</v>
       </c>
       <c r="C36">
-        <v>0.01658981870507452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01250501891706916</v>
+      </c>
+      <c r="D36">
+        <v>0.01651434676619165</v>
+      </c>
+      <c r="E36">
+        <v>0.03984476430187884</v>
+      </c>
+      <c r="F36">
+        <v>-0.0152923159128169</v>
+      </c>
+      <c r="G36">
+        <v>0.00723584144103164</v>
+      </c>
+      <c r="H36">
+        <v>-0.0527949801574801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0410771527711436</v>
+        <v>-0.04320555366066101</v>
       </c>
       <c r="C38">
-        <v>0.00394509864005241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002185072968357283</v>
+      </c>
+      <c r="D38">
+        <v>0.01764682976882375</v>
+      </c>
+      <c r="E38">
+        <v>0.05716496681371367</v>
+      </c>
+      <c r="F38">
+        <v>0.01661860244762472</v>
+      </c>
+      <c r="G38">
+        <v>-0.01885204242985582</v>
+      </c>
+      <c r="H38">
+        <v>-0.02683859072353297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09350032417423645</v>
+        <v>-0.1035836451536177</v>
       </c>
       <c r="C39">
-        <v>0.07264523408311782</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04785479893544896</v>
+      </c>
+      <c r="D39">
+        <v>0.07256907813128161</v>
+      </c>
+      <c r="E39">
+        <v>-0.01449981920034638</v>
+      </c>
+      <c r="F39">
+        <v>-0.01140089217770889</v>
+      </c>
+      <c r="G39">
+        <v>-0.02916797734518809</v>
+      </c>
+      <c r="H39">
+        <v>-0.06127158809160252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07441443743799982</v>
+        <v>-0.07192435172081978</v>
       </c>
       <c r="C40">
-        <v>0.04096122858171328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01987209262491947</v>
+      </c>
+      <c r="D40">
+        <v>0.004109902073148089</v>
+      </c>
+      <c r="E40">
+        <v>0.01613788880394529</v>
+      </c>
+      <c r="F40">
+        <v>0.05629840096472672</v>
+      </c>
+      <c r="G40">
+        <v>-0.04054792664444008</v>
+      </c>
+      <c r="H40">
+        <v>0.06906932784098797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04017793284594343</v>
+        <v>-0.04275709332775509</v>
       </c>
       <c r="C41">
-        <v>0.006007651035259793</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001671710946148443</v>
+      </c>
+      <c r="D41">
+        <v>0.03772744746006392</v>
+      </c>
+      <c r="E41">
+        <v>0.004400332025071232</v>
+      </c>
+      <c r="F41">
+        <v>0.01400917103821569</v>
+      </c>
+      <c r="G41">
+        <v>-0.01363544188043685</v>
+      </c>
+      <c r="H41">
+        <v>-0.03345427453951201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04631821411413372</v>
+        <v>-0.05479549119287031</v>
       </c>
       <c r="C43">
-        <v>0.02506967471475264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01596857199200629</v>
+      </c>
+      <c r="D43">
+        <v>0.02677363250828303</v>
+      </c>
+      <c r="E43">
+        <v>0.01427922024429279</v>
+      </c>
+      <c r="F43">
+        <v>-0.008086586288847966</v>
+      </c>
+      <c r="G43">
+        <v>0.005967910730935119</v>
+      </c>
+      <c r="H43">
+        <v>-0.04816560225673555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09532840061952658</v>
+        <v>-0.09077299044672524</v>
       </c>
       <c r="C44">
-        <v>0.09382419839338992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06084701010780674</v>
+      </c>
+      <c r="D44">
+        <v>0.06980328206535528</v>
+      </c>
+      <c r="E44">
+        <v>0.08069413751879957</v>
+      </c>
+      <c r="F44">
+        <v>-0.0403176641782006</v>
+      </c>
+      <c r="G44">
+        <v>-0.02230513789694891</v>
+      </c>
+      <c r="H44">
+        <v>-0.01423137802369203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02446135239841875</v>
+        <v>-0.03106337014692527</v>
       </c>
       <c r="C46">
-        <v>0.01281722000664823</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.008645775595916344</v>
+      </c>
+      <c r="D46">
+        <v>0.03442155761886859</v>
+      </c>
+      <c r="E46">
+        <v>0.02049570983337666</v>
+      </c>
+      <c r="F46">
+        <v>-0.01581023811685508</v>
+      </c>
+      <c r="G46">
+        <v>-0.007136964381884805</v>
+      </c>
+      <c r="H46">
+        <v>-0.03609676939661773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02744605424081951</v>
+        <v>-0.03496255212323782</v>
       </c>
       <c r="C47">
-        <v>0.0254113686853502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01941152515717164</v>
+      </c>
+      <c r="D47">
+        <v>0.01932106487967534</v>
+      </c>
+      <c r="E47">
+        <v>0.04878097929831305</v>
+      </c>
+      <c r="F47">
+        <v>-0.01025142339816642</v>
+      </c>
+      <c r="G47">
+        <v>0.03932990768161922</v>
+      </c>
+      <c r="H47">
+        <v>-0.02845478096339001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03086876282483334</v>
+        <v>-0.03687252813376795</v>
       </c>
       <c r="C48">
-        <v>0.01526651165887221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.008784932230255971</v>
+      </c>
+      <c r="D48">
+        <v>0.02560072105483154</v>
+      </c>
+      <c r="E48">
+        <v>0.04216962708493754</v>
+      </c>
+      <c r="F48">
+        <v>-0.00176950896649719</v>
+      </c>
+      <c r="G48">
+        <v>-0.01186236614998435</v>
+      </c>
+      <c r="H48">
+        <v>-0.0541333755041484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1646467034932739</v>
+        <v>-0.1914069697776351</v>
       </c>
       <c r="C49">
-        <v>0.0656180606908341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03732399789048381</v>
+      </c>
+      <c r="D49">
+        <v>0.01952677453280012</v>
+      </c>
+      <c r="E49">
+        <v>-0.1270635075142508</v>
+      </c>
+      <c r="F49">
+        <v>-0.06530545615005263</v>
+      </c>
+      <c r="G49">
+        <v>0.07584084770455612</v>
+      </c>
+      <c r="H49">
+        <v>0.2277220484033244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03759798761572897</v>
+        <v>-0.04450807595533102</v>
       </c>
       <c r="C50">
-        <v>0.0219119241807001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01517778948951104</v>
+      </c>
+      <c r="D50">
+        <v>0.03677220341259194</v>
+      </c>
+      <c r="E50">
+        <v>0.04817219081726025</v>
+      </c>
+      <c r="F50">
+        <v>-0.01466380120735886</v>
+      </c>
+      <c r="G50">
+        <v>0.01273348921793832</v>
+      </c>
+      <c r="H50">
+        <v>-0.06932166787282558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02591024057076554</v>
+        <v>-0.02721191188504302</v>
       </c>
       <c r="C51">
-        <v>0.009588699478902707</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.004938104969053823</v>
+      </c>
+      <c r="D51">
+        <v>0.0218206119091657</v>
+      </c>
+      <c r="E51">
+        <v>0.01655956324496395</v>
+      </c>
+      <c r="F51">
+        <v>-0.007328900484164401</v>
+      </c>
+      <c r="G51">
+        <v>-0.002469469791521844</v>
+      </c>
+      <c r="H51">
+        <v>0.004676780563528711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1491318054640224</v>
+        <v>-0.1615045414636096</v>
       </c>
       <c r="C53">
-        <v>0.07966148704732721</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05191283512395118</v>
+      </c>
+      <c r="D53">
+        <v>0.02134219636057951</v>
+      </c>
+      <c r="E53">
+        <v>-0.03284621129293524</v>
+      </c>
+      <c r="F53">
+        <v>-0.01644236163474301</v>
+      </c>
+      <c r="G53">
+        <v>-0.004769644866580122</v>
+      </c>
+      <c r="H53">
+        <v>-0.1525007740173892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0550106810401232</v>
+        <v>-0.05584222374386247</v>
       </c>
       <c r="C54">
-        <v>0.02328186038664831</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01080500471077099</v>
+      </c>
+      <c r="D54">
+        <v>0.02190060346304929</v>
+      </c>
+      <c r="E54">
+        <v>0.04726695802955434</v>
+      </c>
+      <c r="F54">
+        <v>-0.003563250183038203</v>
+      </c>
+      <c r="G54">
+        <v>-0.01823039570680143</v>
+      </c>
+      <c r="H54">
+        <v>-0.06277114091027478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09857915688649058</v>
+        <v>-0.1019784166828007</v>
       </c>
       <c r="C55">
-        <v>0.05572963266933806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03552094984787778</v>
+      </c>
+      <c r="D55">
+        <v>0.02777061445757422</v>
+      </c>
+      <c r="E55">
+        <v>0.010367582156074</v>
+      </c>
+      <c r="F55">
+        <v>-0.01430294503048032</v>
+      </c>
+      <c r="G55">
+        <v>-0.01646110022499591</v>
+      </c>
+      <c r="H55">
+        <v>-0.1463248246994963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1474196936448599</v>
+        <v>-0.159934746267542</v>
       </c>
       <c r="C56">
-        <v>0.09282869355359716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06394004421525451</v>
+      </c>
+      <c r="D56">
+        <v>0.01874991061253122</v>
+      </c>
+      <c r="E56">
+        <v>-0.03424720618168079</v>
+      </c>
+      <c r="F56">
+        <v>-0.03319690006853416</v>
+      </c>
+      <c r="G56">
+        <v>-0.000250270434022152</v>
+      </c>
+      <c r="H56">
+        <v>-0.157993355025648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1190568608413836</v>
+        <v>-0.09563793638831329</v>
       </c>
       <c r="C58">
-        <v>0.003634968346158734</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03588397285426708</v>
+      </c>
+      <c r="D58">
+        <v>0.04826303257423806</v>
+      </c>
+      <c r="E58">
+        <v>0.1609217378568996</v>
+      </c>
+      <c r="F58">
+        <v>0.003325266217358021</v>
+      </c>
+      <c r="G58">
+        <v>0.06148904644409484</v>
+      </c>
+      <c r="H58">
+        <v>0.1569895572462409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1191235280515749</v>
+        <v>-0.1419347391040869</v>
       </c>
       <c r="C59">
-        <v>0.0802884222299514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08789130402850197</v>
+      </c>
+      <c r="D59">
+        <v>-0.3615774771643852</v>
+      </c>
+      <c r="E59">
+        <v>0.05272656485910485</v>
+      </c>
+      <c r="F59">
+        <v>-0.00422911396722288</v>
+      </c>
+      <c r="G59">
+        <v>0.03985711673996178</v>
+      </c>
+      <c r="H59">
+        <v>-0.003690313183920807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2010975426060641</v>
+        <v>-0.2286735961621076</v>
       </c>
       <c r="C60">
-        <v>0.1033425329507362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06858910806482114</v>
+      </c>
+      <c r="D60">
+        <v>0.02750681852353896</v>
+      </c>
+      <c r="E60">
+        <v>-0.06815401876217782</v>
+      </c>
+      <c r="F60">
+        <v>-0.05926830661856153</v>
+      </c>
+      <c r="G60">
+        <v>-0.01441169026014956</v>
+      </c>
+      <c r="H60">
+        <v>0.1599049906722722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07905468137757085</v>
+        <v>-0.08710831286922485</v>
       </c>
       <c r="C61">
-        <v>0.0496117068362231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03233686472586829</v>
+      </c>
+      <c r="D61">
+        <v>0.05006726401524116</v>
+      </c>
+      <c r="E61">
+        <v>-0.01402111942116481</v>
+      </c>
+      <c r="F61">
+        <v>-0.007511254005639071</v>
+      </c>
+      <c r="G61">
+        <v>0.001105671691782155</v>
+      </c>
+      <c r="H61">
+        <v>-0.06859092052346827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1273118561741355</v>
+        <v>-0.1390868168285469</v>
       </c>
       <c r="C62">
-        <v>0.06817001826416298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04351466804921474</v>
+      </c>
+      <c r="D62">
+        <v>0.02579107903286732</v>
+      </c>
+      <c r="E62">
+        <v>-0.05743399525415995</v>
+      </c>
+      <c r="F62">
+        <v>-0.01215933891658717</v>
+      </c>
+      <c r="G62">
+        <v>-0.03917766596252319</v>
+      </c>
+      <c r="H62">
+        <v>-0.1611728860949573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0535348091788073</v>
+        <v>-0.05193979364078171</v>
       </c>
       <c r="C63">
-        <v>0.02658839069393442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01329690235689015</v>
+      </c>
+      <c r="D63">
+        <v>0.02590293502481178</v>
+      </c>
+      <c r="E63">
+        <v>0.04950618548844981</v>
+      </c>
+      <c r="F63">
+        <v>0.00606685920862388</v>
+      </c>
+      <c r="G63">
+        <v>-0.03884769882638095</v>
+      </c>
+      <c r="H63">
+        <v>-0.07145219556309694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1091600411247311</v>
+        <v>-0.1117266568300379</v>
       </c>
       <c r="C64">
-        <v>0.02801310603605037</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004470533567453278</v>
+      </c>
+      <c r="D64">
+        <v>0.04295388765372721</v>
+      </c>
+      <c r="E64">
+        <v>0.03250087814988878</v>
+      </c>
+      <c r="F64">
+        <v>-0.04692125431303161</v>
+      </c>
+      <c r="G64">
+        <v>-0.04349165489104581</v>
+      </c>
+      <c r="H64">
+        <v>-0.07241007448982818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1205967906559494</v>
+        <v>-0.1273553624672556</v>
       </c>
       <c r="C65">
-        <v>0.06002025993946587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03746070923029535</v>
+      </c>
+      <c r="D65">
+        <v>0.0009036206508502378</v>
+      </c>
+      <c r="E65">
+        <v>0.008141429399752308</v>
+      </c>
+      <c r="F65">
+        <v>-0.06765194915679022</v>
+      </c>
+      <c r="G65">
+        <v>-0.05363099314787658</v>
+      </c>
+      <c r="H65">
+        <v>0.08187717416968605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1437540917228828</v>
+        <v>-0.1559875708533397</v>
       </c>
       <c r="C66">
-        <v>0.07660003338148681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04364050555863865</v>
+      </c>
+      <c r="D66">
+        <v>0.1106714387302548</v>
+      </c>
+      <c r="E66">
+        <v>-0.05331692442405088</v>
+      </c>
+      <c r="F66">
+        <v>-0.02460074670630888</v>
+      </c>
+      <c r="G66">
+        <v>-0.03631820037492935</v>
+      </c>
+      <c r="H66">
+        <v>-0.1337496906882897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07406926920947142</v>
+        <v>-0.08117474754152959</v>
       </c>
       <c r="C67">
-        <v>0.01590815077258828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004844635162744233</v>
+      </c>
+      <c r="D67">
+        <v>0.02882966055481893</v>
+      </c>
+      <c r="E67">
+        <v>0.02832777094614373</v>
+      </c>
+      <c r="F67">
+        <v>-0.008160461268332624</v>
+      </c>
+      <c r="G67">
+        <v>0.002387369316187345</v>
+      </c>
+      <c r="H67">
+        <v>-0.02536336267217265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0597377297408467</v>
+        <v>-0.06302881046911597</v>
       </c>
       <c r="C68">
-        <v>0.04955090815284012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05599545735323055</v>
+      </c>
+      <c r="D68">
+        <v>-0.2645393132486411</v>
+      </c>
+      <c r="E68">
+        <v>0.05278399953763945</v>
+      </c>
+      <c r="F68">
+        <v>-0.007851573731964519</v>
+      </c>
+      <c r="G68">
+        <v>0.01394168212128842</v>
+      </c>
+      <c r="H68">
+        <v>-0.0205205467650087</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05213231923313272</v>
+        <v>-0.05183257707041199</v>
       </c>
       <c r="C69">
-        <v>0.01890594230069606</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004713489201864761</v>
+      </c>
+      <c r="D69">
+        <v>0.01954951319210565</v>
+      </c>
+      <c r="E69">
+        <v>0.02362652088420444</v>
+      </c>
+      <c r="F69">
+        <v>0.007214349539011316</v>
+      </c>
+      <c r="G69">
+        <v>0.01171756168317386</v>
+      </c>
+      <c r="H69">
+        <v>-0.05677574913432749</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004934389850882227</v>
+        <v>-0.02491501242421199</v>
       </c>
       <c r="C70">
-        <v>-0.004606975359593967</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0004417113053418703</v>
+      </c>
+      <c r="D70">
+        <v>-0.001196167888836654</v>
+      </c>
+      <c r="E70">
+        <v>-0.02455491462466289</v>
+      </c>
+      <c r="F70">
+        <v>-0.02372249804318114</v>
+      </c>
+      <c r="G70">
+        <v>0.02666459064877112</v>
+      </c>
+      <c r="H70">
+        <v>0.05867533570808862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06087188330070598</v>
+        <v>-0.06666739048773222</v>
       </c>
       <c r="C71">
-        <v>0.04991799168360383</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05861597995322017</v>
+      </c>
+      <c r="D71">
+        <v>-0.2915680305222685</v>
+      </c>
+      <c r="E71">
+        <v>0.050105315973033</v>
+      </c>
+      <c r="F71">
+        <v>-0.04009793353181934</v>
+      </c>
+      <c r="G71">
+        <v>0.002622610279411385</v>
+      </c>
+      <c r="H71">
+        <v>-0.02021115301172051</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1401851740374039</v>
+        <v>-0.1527788111492569</v>
       </c>
       <c r="C72">
-        <v>0.06500933689268173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03886110872541617</v>
+      </c>
+      <c r="D72">
+        <v>-0.006457028534990378</v>
+      </c>
+      <c r="E72">
+        <v>-0.1122978413392429</v>
+      </c>
+      <c r="F72">
+        <v>0.1558103307339908</v>
+      </c>
+      <c r="G72">
+        <v>-0.1126056616669564</v>
+      </c>
+      <c r="H72">
+        <v>-0.01396384920284881</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2660276536383661</v>
+        <v>-0.2858765869758763</v>
       </c>
       <c r="C73">
-        <v>0.1158223465367231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05635762445571477</v>
+      </c>
+      <c r="D73">
+        <v>0.08943718117250633</v>
+      </c>
+      <c r="E73">
+        <v>-0.1903235365483463</v>
+      </c>
+      <c r="F73">
+        <v>-0.1153035710658996</v>
+      </c>
+      <c r="G73">
+        <v>0.2195213171694361</v>
+      </c>
+      <c r="H73">
+        <v>0.524391291820863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07939270408290423</v>
+        <v>-0.09069986196185821</v>
       </c>
       <c r="C74">
-        <v>0.07794289026800028</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05880496833878652</v>
+      </c>
+      <c r="D74">
+        <v>0.02997872000813759</v>
+      </c>
+      <c r="E74">
+        <v>-0.008268321219553326</v>
+      </c>
+      <c r="F74">
+        <v>0.01386070371569371</v>
+      </c>
+      <c r="G74">
+        <v>0.02824149392458055</v>
+      </c>
+      <c r="H74">
+        <v>-0.1254416973201538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09538424506056689</v>
+        <v>-0.1015863357354223</v>
       </c>
       <c r="C75">
-        <v>0.0535177193419915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02885426289892677</v>
+      </c>
+      <c r="D75">
+        <v>0.01306619056719358</v>
+      </c>
+      <c r="E75">
+        <v>0.007939171711166256</v>
+      </c>
+      <c r="F75">
+        <v>-0.0403951927858458</v>
+      </c>
+      <c r="G75">
+        <v>0.004464607849021862</v>
+      </c>
+      <c r="H75">
+        <v>-0.1172466590478785</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1273113239535147</v>
+        <v>-0.1367124925919817</v>
       </c>
       <c r="C76">
-        <v>0.08332254186107049</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05452210498818008</v>
+      </c>
+      <c r="D76">
+        <v>0.05760267781829304</v>
+      </c>
+      <c r="E76">
+        <v>0.02023038715981844</v>
+      </c>
+      <c r="F76">
+        <v>-0.04448728905346577</v>
+      </c>
+      <c r="G76">
+        <v>-0.007332854218780799</v>
+      </c>
+      <c r="H76">
+        <v>-0.1543179578976081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1235307531652551</v>
+        <v>-0.1145514845064586</v>
       </c>
       <c r="C77">
-        <v>0.02988988152778705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.003062763231663978</v>
+      </c>
+      <c r="D77">
+        <v>0.02003755806473966</v>
+      </c>
+      <c r="E77">
+        <v>-0.0147302458286371</v>
+      </c>
+      <c r="F77">
+        <v>-0.1776448446094199</v>
+      </c>
+      <c r="G77">
+        <v>-0.8778739804627794</v>
+      </c>
+      <c r="H77">
+        <v>0.2307302931550782</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09410618030174192</v>
+        <v>-0.1274907648443074</v>
       </c>
       <c r="C78">
-        <v>0.04141688893882407</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03155384635994089</v>
+      </c>
+      <c r="D78">
+        <v>0.09215450858947341</v>
+      </c>
+      <c r="E78">
+        <v>0.06260858389650756</v>
+      </c>
+      <c r="F78">
+        <v>-0.01388601922210536</v>
+      </c>
+      <c r="G78">
+        <v>-0.03990382897887906</v>
+      </c>
+      <c r="H78">
+        <v>0.08966133766742007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1475101111406849</v>
+        <v>-0.1525877124094787</v>
       </c>
       <c r="C79">
-        <v>0.08257602511538839</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04671092947189175</v>
+      </c>
+      <c r="D79">
+        <v>0.02993528457603798</v>
+      </c>
+      <c r="E79">
+        <v>-0.0164621201975598</v>
+      </c>
+      <c r="F79">
+        <v>-0.01235477216308066</v>
+      </c>
+      <c r="G79">
+        <v>0.0152724669152352</v>
+      </c>
+      <c r="H79">
+        <v>-0.1689288303700131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0425779611876734</v>
+        <v>-0.04186589684720648</v>
       </c>
       <c r="C80">
-        <v>0.01512616109083018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00561049601917491</v>
+      </c>
+      <c r="D80">
+        <v>0.02438058276420431</v>
+      </c>
+      <c r="E80">
+        <v>-0.01397838204895933</v>
+      </c>
+      <c r="F80">
+        <v>0.01491938601324262</v>
+      </c>
+      <c r="G80">
+        <v>0.03962808380016889</v>
+      </c>
+      <c r="H80">
+        <v>-0.03790742403647442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1185757437301636</v>
+        <v>-0.1216353660690855</v>
       </c>
       <c r="C81">
-        <v>0.06627875419093139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03594733344496616</v>
+      </c>
+      <c r="D81">
+        <v>0.02887777695092183</v>
+      </c>
+      <c r="E81">
+        <v>0.01019034770574564</v>
+      </c>
+      <c r="F81">
+        <v>-0.02099273339992512</v>
+      </c>
+      <c r="G81">
+        <v>0.03497608360578526</v>
+      </c>
+      <c r="H81">
+        <v>-0.1766558537143007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1262252084475969</v>
+        <v>-0.1291207811763649</v>
       </c>
       <c r="C82">
-        <v>0.07807838418593943</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.048463660012172</v>
+      </c>
+      <c r="D82">
+        <v>0.03276158262676605</v>
+      </c>
+      <c r="E82">
+        <v>-0.01487234647386523</v>
+      </c>
+      <c r="F82">
+        <v>-0.0590260551321095</v>
+      </c>
+      <c r="G82">
+        <v>0.02815468749780883</v>
+      </c>
+      <c r="H82">
+        <v>-0.1825386683455114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0772447456530314</v>
+        <v>-0.08457173859642149</v>
       </c>
       <c r="C83">
-        <v>-0.00280893751065815</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01960786834708413</v>
+      </c>
+      <c r="D83">
+        <v>0.0427914902232272</v>
+      </c>
+      <c r="E83">
+        <v>0.0215966030916044</v>
+      </c>
+      <c r="F83">
+        <v>-0.05688440373723339</v>
+      </c>
+      <c r="G83">
+        <v>0.1028737706896526</v>
+      </c>
+      <c r="H83">
+        <v>0.066934724826835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02813948763053837</v>
+        <v>-0.03988367493386372</v>
       </c>
       <c r="C84">
-        <v>0.02403192093879632</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01883272458718438</v>
+      </c>
+      <c r="D84">
+        <v>0.03731457129337629</v>
+      </c>
+      <c r="E84">
+        <v>0.01818793918629909</v>
+      </c>
+      <c r="F84">
+        <v>0.05008013699274343</v>
+      </c>
+      <c r="G84">
+        <v>0.06365248160340926</v>
+      </c>
+      <c r="H84">
+        <v>-0.01882867445189322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1197184249667042</v>
+        <v>-0.1203929554135242</v>
       </c>
       <c r="C85">
-        <v>0.06194897235552851</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03120530724987701</v>
+      </c>
+      <c r="D85">
+        <v>0.03150032388840417</v>
+      </c>
+      <c r="E85">
+        <v>0.01316498857783794</v>
+      </c>
+      <c r="F85">
+        <v>-0.04622371451834431</v>
+      </c>
+      <c r="G85">
+        <v>0.005735854980153571</v>
+      </c>
+      <c r="H85">
+        <v>-0.1460454642180788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05028497324161792</v>
+        <v>-0.05602869245752677</v>
       </c>
       <c r="C86">
-        <v>0.03062383665037197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01886284999656563</v>
+      </c>
+      <c r="D86">
+        <v>0.02561941668917655</v>
+      </c>
+      <c r="E86">
+        <v>0.04853116723330952</v>
+      </c>
+      <c r="F86">
+        <v>-0.02601602969651726</v>
+      </c>
+      <c r="G86">
+        <v>0.005171991810028571</v>
+      </c>
+      <c r="H86">
+        <v>-0.02084789125471396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1201365957927528</v>
+        <v>-0.1208861275170188</v>
       </c>
       <c r="C87">
-        <v>0.07151619900854896</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03607203917622111</v>
+      </c>
+      <c r="D87">
+        <v>0.07386406919785293</v>
+      </c>
+      <c r="E87">
+        <v>0.01903299630800998</v>
+      </c>
+      <c r="F87">
+        <v>-0.001285814371167561</v>
+      </c>
+      <c r="G87">
+        <v>-0.1098235643089703</v>
+      </c>
+      <c r="H87">
+        <v>0.01414024977879001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05376483418037781</v>
+        <v>-0.05979863720819301</v>
       </c>
       <c r="C88">
-        <v>0.03217864566855071</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02065809349560749</v>
+      </c>
+      <c r="D88">
+        <v>0.02678284961912352</v>
+      </c>
+      <c r="E88">
+        <v>0.01695308334836926</v>
+      </c>
+      <c r="F88">
+        <v>-0.005499314293479366</v>
+      </c>
+      <c r="G88">
+        <v>-0.01459496983010121</v>
+      </c>
+      <c r="H88">
+        <v>-0.0564033826850316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08493995391717801</v>
+        <v>-0.1009189594253187</v>
       </c>
       <c r="C89">
-        <v>0.06704215822050633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07865668758677763</v>
+      </c>
+      <c r="D89">
+        <v>-0.3301447809029426</v>
+      </c>
+      <c r="E89">
+        <v>0.08590240863206618</v>
+      </c>
+      <c r="F89">
+        <v>-0.07523766992991913</v>
+      </c>
+      <c r="G89">
+        <v>0.01975352862198341</v>
+      </c>
+      <c r="H89">
+        <v>-0.01010984095097091</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07318597393522748</v>
+        <v>-0.08426291271169371</v>
       </c>
       <c r="C90">
-        <v>0.05824239952507979</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06648753679004028</v>
+      </c>
+      <c r="D90">
+        <v>-0.302662674310311</v>
+      </c>
+      <c r="E90">
+        <v>0.07097795605222518</v>
+      </c>
+      <c r="F90">
+        <v>-0.005159893522040941</v>
+      </c>
+      <c r="G90">
+        <v>0.003744631497557649</v>
+      </c>
+      <c r="H90">
+        <v>-0.01607578858370359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08426199018428585</v>
+        <v>-0.08836071593677546</v>
       </c>
       <c r="C91">
-        <v>0.05449818014808673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03335563377403981</v>
+      </c>
+      <c r="D91">
+        <v>0.0317474440080369</v>
+      </c>
+      <c r="E91">
+        <v>0.01129107215886075</v>
+      </c>
+      <c r="F91">
+        <v>-0.00418721027099534</v>
+      </c>
+      <c r="G91">
+        <v>0.04289703847256549</v>
+      </c>
+      <c r="H91">
+        <v>-0.07485439361875772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08042552762583799</v>
+        <v>-0.09178763540939573</v>
       </c>
       <c r="C92">
-        <v>0.07665183726174769</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08593509446705412</v>
+      </c>
+      <c r="D92">
+        <v>-0.3383471301535623</v>
+      </c>
+      <c r="E92">
+        <v>0.06317028256318315</v>
+      </c>
+      <c r="F92">
+        <v>-0.03351518333217812</v>
+      </c>
+      <c r="G92">
+        <v>-0.006761800767177101</v>
+      </c>
+      <c r="H92">
+        <v>-0.01815891214336539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06667753237352463</v>
+        <v>-0.08283614192138274</v>
       </c>
       <c r="C93">
-        <v>0.06355773393133887</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07660054208857843</v>
+      </c>
+      <c r="D93">
+        <v>-0.3020475084660668</v>
+      </c>
+      <c r="E93">
+        <v>0.04535324721118698</v>
+      </c>
+      <c r="F93">
+        <v>-0.045925159649092</v>
+      </c>
+      <c r="G93">
+        <v>-0.007083333690270894</v>
+      </c>
+      <c r="H93">
+        <v>0.0007543057083855572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1328098975900556</v>
+        <v>-0.1267623274465152</v>
       </c>
       <c r="C94">
-        <v>0.05784301261276358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02045246563293862</v>
+      </c>
+      <c r="D94">
+        <v>0.04794874387790431</v>
+      </c>
+      <c r="E94">
+        <v>-0.01701003703883097</v>
+      </c>
+      <c r="F94">
+        <v>-0.02627386466428484</v>
+      </c>
+      <c r="G94">
+        <v>0.03605834309923787</v>
+      </c>
+      <c r="H94">
+        <v>-0.114425446688076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1178294083684942</v>
+        <v>-0.1267412511823361</v>
       </c>
       <c r="C95">
-        <v>0.03818482423176378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.01010073421996563</v>
+      </c>
+      <c r="D95">
+        <v>0.05798119732731746</v>
+      </c>
+      <c r="E95">
+        <v>0.001829963176877044</v>
+      </c>
+      <c r="F95">
+        <v>-0.04217211653203257</v>
+      </c>
+      <c r="G95">
+        <v>0.01781020218941308</v>
+      </c>
+      <c r="H95">
+        <v>0.0267677974921542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2048729292984439</v>
+        <v>-0.2145975284048983</v>
       </c>
       <c r="C97">
-        <v>0.04878935846877304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01142820341503015</v>
+      </c>
+      <c r="D97">
+        <v>-0.08146671061382968</v>
+      </c>
+      <c r="E97">
+        <v>-0.2652639938412347</v>
+      </c>
+      <c r="F97">
+        <v>0.8803918177633834</v>
+      </c>
+      <c r="G97">
+        <v>-0.1087462518063419</v>
+      </c>
+      <c r="H97">
+        <v>0.02898553128922637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2469249526052213</v>
+        <v>-0.2737603903583296</v>
       </c>
       <c r="C98">
-        <v>0.08561905458196692</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04041191987046739</v>
+      </c>
+      <c r="D98">
+        <v>0.05963594737735783</v>
+      </c>
+      <c r="E98">
+        <v>-0.139233561883787</v>
+      </c>
+      <c r="F98">
+        <v>-0.07925726444349458</v>
+      </c>
+      <c r="G98">
+        <v>0.280772126949439</v>
+      </c>
+      <c r="H98">
+        <v>0.2299031254302433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4594941481508064</v>
+        <v>-0.2868922347123186</v>
       </c>
       <c r="C99">
-        <v>-0.8738949719626358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9371542536932087</v>
+      </c>
+      <c r="D99">
+        <v>-0.1231700059305193</v>
+      </c>
+      <c r="E99">
+        <v>0.05626897602300417</v>
+      </c>
+      <c r="F99">
+        <v>-0.04090045506202904</v>
+      </c>
+      <c r="G99">
+        <v>0.01414346130079934</v>
+      </c>
+      <c r="H99">
+        <v>-0.06062777611662726</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04048823087502719</v>
+        <v>-0.04710415858234433</v>
       </c>
       <c r="C101">
-        <v>0.0303231093745459</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02343053600836047</v>
+      </c>
+      <c r="D101">
+        <v>0.007432304944637101</v>
+      </c>
+      <c r="E101">
+        <v>0.04675370217998857</v>
+      </c>
+      <c r="F101">
+        <v>-0.0003289111161973288</v>
+      </c>
+      <c r="G101">
+        <v>-0.001312858428224196</v>
+      </c>
+      <c r="H101">
+        <v>-0.086231030771336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
